--- a/execution_times_analysis.xlsx
+++ b/execution_times_analysis.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,20 +487,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>avg_without_first_ms</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Min_Execution_Time_ms</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Max_Execution_Time_ms</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Std_Dev_ms</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Last_Execution</t>
         </is>
@@ -513,20 +518,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>5538.18</v>
+        <v>5116.34</v>
       </c>
       <c r="D2" t="n">
-        <v>5538.18</v>
+        <v>5077.16</v>
       </c>
       <c r="E2" t="n">
-        <v>5538.18</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" s="2" t="n">
-        <v>45899.16247818287</v>
+        <v>5050.72</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5508.1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>130.33</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>45901.13408296296</v>
       </c>
     </row>
     <row r="3">
@@ -536,20 +546,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>5556.47</v>
+        <v>5152.94</v>
       </c>
       <c r="D3" t="n">
-        <v>5556.47</v>
+        <v>5114.95</v>
       </c>
       <c r="E3" t="n">
-        <v>5556.47</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" s="2" t="n">
-        <v>45899.16255346065</v>
+        <v>5101.41</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5532.82</v>
+      </c>
+      <c r="G3" t="n">
+        <v>126.32</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>45901.13414216435</v>
       </c>
     </row>
     <row r="4">
@@ -559,20 +574,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>5588.19</v>
+        <v>5154.29</v>
       </c>
       <c r="D4" t="n">
-        <v>5588.19</v>
+        <v>5113.59</v>
       </c>
       <c r="E4" t="n">
-        <v>5588.19</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" s="2" t="n">
-        <v>45899.16262957176</v>
+        <v>5095.83</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5561.24</v>
+      </c>
+      <c r="G4" t="n">
+        <v>135.17</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>45901.13420075231</v>
       </c>
     </row>
     <row r="5">
@@ -582,20 +602,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>5575.06</v>
+        <v>5154.31</v>
       </c>
       <c r="D5" t="n">
-        <v>5575.06</v>
+        <v>5114.34</v>
       </c>
       <c r="E5" t="n">
-        <v>5575.06</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" s="2" t="n">
-        <v>45899.16270635417</v>
+        <v>5094.56</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5554.04</v>
+      </c>
+      <c r="G5" t="n">
+        <v>132.94</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>45901.13425957176</v>
       </c>
     </row>
     <row r="6">
@@ -605,20 +630,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>5588.46</v>
+        <v>5152.87</v>
       </c>
       <c r="D6" t="n">
-        <v>5588.46</v>
+        <v>5114.78</v>
       </c>
       <c r="E6" t="n">
-        <v>5588.46</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" s="2" t="n">
-        <v>45899.16278180556</v>
+        <v>5098.88</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5533.76</v>
+      </c>
+      <c r="G6" t="n">
+        <v>126.62</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>45901.13431810185</v>
       </c>
     </row>
     <row r="7">
@@ -628,20 +658,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>5568.54</v>
+        <v>5154.17</v>
       </c>
       <c r="D7" t="n">
-        <v>5568.54</v>
+        <v>5111.94</v>
       </c>
       <c r="E7" t="n">
-        <v>5568.54</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" s="2" t="n">
-        <v>45899.1628566088</v>
+        <v>5097.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5576.49</v>
+      </c>
+      <c r="G7" t="n">
+        <v>140.21</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>45901.13437668981</v>
       </c>
     </row>
     <row r="8">
@@ -651,20 +686,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>5594.65</v>
+        <v>5161.37</v>
       </c>
       <c r="D8" t="n">
-        <v>5594.65</v>
+        <v>5117.89</v>
       </c>
       <c r="E8" t="n">
-        <v>5594.65</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" s="2" t="n">
-        <v>45899.16293203703</v>
+        <v>5103.05</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5596.2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>144.49</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>45901.13443552083</v>
       </c>
     </row>
     <row r="9">
@@ -674,20 +714,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>5551.63</v>
+        <v>5219.17</v>
       </c>
       <c r="D9" t="n">
-        <v>5551.63</v>
+        <v>5189.43</v>
       </c>
       <c r="E9" t="n">
-        <v>5551.63</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" s="2" t="n">
-        <v>45899.1630069213</v>
+        <v>5090.74</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5576.03</v>
+      </c>
+      <c r="G9" t="n">
+        <v>198.49</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>45901.13449471065</v>
       </c>
     </row>
     <row r="10">
@@ -697,20 +742,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>5562.71</v>
+        <v>5222.62</v>
       </c>
       <c r="D10" t="n">
-        <v>5562.71</v>
+        <v>5192.23</v>
       </c>
       <c r="E10" t="n">
-        <v>5562.71</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" s="2" t="n">
-        <v>45899.16308144676</v>
+        <v>5110.26</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5587.31</v>
+      </c>
+      <c r="G10" t="n">
+        <v>200.91</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>45901.13455351852</v>
       </c>
     </row>
     <row r="11">
@@ -720,20 +770,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>5560.74</v>
+        <v>5161.56</v>
       </c>
       <c r="D11" t="n">
-        <v>5560.74</v>
+        <v>5120.7</v>
       </c>
       <c r="E11" t="n">
-        <v>5560.74</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" s="2" t="n">
-        <v>45899.16315591435</v>
+        <v>5110.94</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5570.17</v>
+      </c>
+      <c r="G11" t="n">
+        <v>135.72</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>45901.13461209491</v>
       </c>
     </row>
     <row r="12">
@@ -743,20 +798,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>5576.23</v>
+        <v>5162.72</v>
       </c>
       <c r="D12" t="n">
-        <v>5576.23</v>
+        <v>5120.2</v>
       </c>
       <c r="E12" t="n">
-        <v>5576.23</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" s="2" t="n">
-        <v>45899.16323061343</v>
+        <v>5111.07</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5587.95</v>
+      </c>
+      <c r="G12" t="n">
+        <v>141.12</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>45901.1346709838</v>
       </c>
     </row>
     <row r="13">
@@ -766,20 +826,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>5542.89</v>
+        <v>5160.45</v>
       </c>
       <c r="D13" t="n">
-        <v>5542.89</v>
+        <v>5119.65</v>
       </c>
       <c r="E13" t="n">
-        <v>5542.89</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" s="2" t="n">
-        <v>45899.16330487269</v>
+        <v>5097</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5568.46</v>
+      </c>
+      <c r="G13" t="n">
+        <v>135.57</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>45901.1347297338</v>
       </c>
     </row>
     <row r="14">
@@ -789,20 +854,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>5582.13</v>
+        <v>5156.13</v>
       </c>
       <c r="D14" t="n">
-        <v>5582.13</v>
+        <v>5116.1</v>
       </c>
       <c r="E14" t="n">
-        <v>5582.13</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" s="2" t="n">
-        <v>45899.16337856482</v>
+        <v>5090.39</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5556.4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>133.25</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>45901.13478844908</v>
       </c>
     </row>
     <row r="15">
@@ -812,20 +882,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>5555.93</v>
+        <v>5157.83</v>
       </c>
       <c r="D15" t="n">
-        <v>5555.93</v>
+        <v>5119.24</v>
       </c>
       <c r="E15" t="n">
-        <v>5555.93</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" s="2" t="n">
-        <v>45899.16345435185</v>
+        <v>5099.13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5543.75</v>
+      </c>
+      <c r="G15" t="n">
+        <v>128.62</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>45901.13484697917</v>
       </c>
     </row>
     <row r="16">
@@ -835,20 +910,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>5536.44</v>
+        <v>5154.84</v>
       </c>
       <c r="D16" t="n">
-        <v>5536.44</v>
+        <v>5114.05</v>
       </c>
       <c r="E16" t="n">
-        <v>5536.44</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" s="2" t="n">
-        <v>45899.16353177084</v>
+        <v>5097.36</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5562.69</v>
+      </c>
+      <c r="G16" t="n">
+        <v>135.67</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>45901.13490586806</v>
       </c>
     </row>
     <row r="17">
@@ -858,20 +938,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>5579.72</v>
+        <v>5155.66</v>
       </c>
       <c r="D17" t="n">
-        <v>5579.72</v>
+        <v>5113.72</v>
       </c>
       <c r="E17" t="n">
-        <v>5579.72</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" s="2" t="n">
-        <v>45899.16360668981</v>
+        <v>5092.01</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5575.09</v>
+      </c>
+      <c r="G17" t="n">
+        <v>139.48</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>45901.13496458333</v>
       </c>
     </row>
     <row r="18">
@@ -881,20 +966,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C18" t="n">
-        <v>5568.53</v>
+        <v>5154.14</v>
       </c>
       <c r="D18" t="n">
-        <v>5568.53</v>
+        <v>5113.49</v>
       </c>
       <c r="E18" t="n">
-        <v>5568.53</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" s="2" t="n">
-        <v>45899.16368174768</v>
+        <v>5090.39</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5560.62</v>
+      </c>
+      <c r="G18" t="n">
+        <v>135.18</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>45901.13502298611</v>
       </c>
     </row>
     <row r="19">
@@ -904,20 +994,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C19" t="n">
-        <v>5569.57</v>
+        <v>5157.38</v>
       </c>
       <c r="D19" t="n">
-        <v>5569.57</v>
+        <v>5117.61</v>
       </c>
       <c r="E19" t="n">
-        <v>5569.57</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" s="2" t="n">
-        <v>45899.16375833334</v>
+        <v>5114.89</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5555.16</v>
+      </c>
+      <c r="G19" t="n">
+        <v>131.94</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>45901.13508188658</v>
       </c>
     </row>
     <row r="20">
@@ -927,20 +1022,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>5560.17</v>
+        <v>5155.62</v>
       </c>
       <c r="D20" t="n">
-        <v>5560.17</v>
+        <v>5113.57</v>
       </c>
       <c r="E20" t="n">
-        <v>5560.17</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" s="2" t="n">
-        <v>45899.16383261574</v>
+        <v>5092.89</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5576.15</v>
+      </c>
+      <c r="G20" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>45901.13514023148</v>
       </c>
     </row>
     <row r="21">
@@ -950,20 +1050,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>5556.57</v>
+        <v>5202.79</v>
       </c>
       <c r="D21" t="n">
-        <v>5556.57</v>
+        <v>5162.83</v>
       </c>
       <c r="E21" t="n">
-        <v>5556.57</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" s="2" t="n">
-        <v>45899.16390809028</v>
+        <v>5108.57</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5602.31</v>
+      </c>
+      <c r="G21" t="n">
+        <v>186.37</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45901.13519896991</v>
       </c>
     </row>
     <row r="22">
@@ -973,20 +1078,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>5549.02</v>
+        <v>5206.39</v>
       </c>
       <c r="D22" t="n">
-        <v>5549.02</v>
+        <v>5169.36</v>
       </c>
       <c r="E22" t="n">
-        <v>5549.02</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" s="2" t="n">
-        <v>45899.16398145833</v>
+        <v>5108.31</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5576.73</v>
+      </c>
+      <c r="G22" t="n">
+        <v>183.24</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>45901.13525793982</v>
       </c>
     </row>
     <row r="23">
@@ -996,20 +1106,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C23" t="n">
-        <v>5575.38</v>
+        <v>5199.3</v>
       </c>
       <c r="D23" t="n">
-        <v>5575.38</v>
+        <v>5161.87</v>
       </c>
       <c r="E23" t="n">
-        <v>5575.38</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" s="2" t="n">
-        <v>45899.16405771991</v>
+        <v>5109</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5573.63</v>
+      </c>
+      <c r="G23" t="n">
+        <v>182.24</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>45901.13531645833</v>
       </c>
     </row>
     <row r="24">
@@ -1019,20 +1134,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>5593.9</v>
+        <v>5206.49</v>
       </c>
       <c r="D24" t="n">
-        <v>5593.9</v>
+        <v>5166.94</v>
       </c>
       <c r="E24" t="n">
-        <v>5593.9</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" s="2" t="n">
-        <v>45899.16413265046</v>
+        <v>5107.63</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5602.09</v>
+      </c>
+      <c r="G24" t="n">
+        <v>190.46</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>45901.13537540509</v>
       </c>
     </row>
     <row r="25">
@@ -1042,20 +1162,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>5574.37</v>
+        <v>5194.86</v>
       </c>
       <c r="D25" t="n">
-        <v>5574.37</v>
+        <v>5157.59</v>
       </c>
       <c r="E25" t="n">
-        <v>5574.37</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" s="2" t="n">
-        <v>45899.16420855324</v>
+        <v>5100</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5567.6</v>
+      </c>
+      <c r="G25" t="n">
+        <v>183.02</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45901.13543399305</v>
       </c>
     </row>
     <row r="26">
@@ -1065,20 +1190,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C26" t="n">
-        <v>5538.43</v>
+        <v>5240.83</v>
       </c>
       <c r="D26" t="n">
-        <v>5538.43</v>
+        <v>5202.69</v>
       </c>
       <c r="E26" t="n">
-        <v>5538.43</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" s="2" t="n">
-        <v>45899.16428324074</v>
+        <v>5093.69</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5622.22</v>
+      </c>
+      <c r="G26" t="n">
+        <v>223.52</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>45901.13549265046</v>
       </c>
     </row>
     <row r="27">
@@ -1088,20 +1218,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C27" t="n">
-        <v>5574.72</v>
+        <v>5235.15</v>
       </c>
       <c r="D27" t="n">
-        <v>5574.72</v>
+        <v>5201.02</v>
       </c>
       <c r="E27" t="n">
-        <v>5574.72</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" s="2" t="n">
-        <v>45899.16435953704</v>
+        <v>5095.6</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5576.37</v>
+      </c>
+      <c r="G27" t="n">
+        <v>210.97</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>45901.13555150463</v>
       </c>
     </row>
     <row r="28">
@@ -1111,20 +1246,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
-        <v>5555.57</v>
+        <v>5237.49</v>
       </c>
       <c r="D28" t="n">
-        <v>5555.57</v>
+        <v>5205.55</v>
       </c>
       <c r="E28" t="n">
-        <v>5555.57</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" s="2" t="n">
-        <v>45899.16443493056</v>
+        <v>5109.46</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5556.87</v>
+      </c>
+      <c r="G28" t="n">
+        <v>200.84</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>45901.13561025463</v>
       </c>
     </row>
     <row r="29">
@@ -1134,20 +1274,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C29" t="n">
-        <v>5547.24</v>
+        <v>5238.73</v>
       </c>
       <c r="D29" t="n">
-        <v>5547.24</v>
+        <v>5203.92</v>
       </c>
       <c r="E29" t="n">
-        <v>5547.24</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" s="2" t="n">
-        <v>45899.16450952546</v>
+        <v>5100.82</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5586.78</v>
+      </c>
+      <c r="G29" t="n">
+        <v>212.26</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>45901.13566877315</v>
       </c>
     </row>
     <row r="30">
@@ -1157,20 +1302,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C30" t="n">
-        <v>5543.03</v>
+        <v>5241.76</v>
       </c>
       <c r="D30" t="n">
-        <v>5543.03</v>
+        <v>5208.55</v>
       </c>
       <c r="E30" t="n">
-        <v>5543.03</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" s="2" t="n">
-        <v>45899.16458381945</v>
+        <v>5104.61</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5573.81</v>
+      </c>
+      <c r="G30" t="n">
+        <v>209.28</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>45901.13572799769</v>
       </c>
     </row>
     <row r="31">
@@ -1180,20 +1330,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C31" t="n">
-        <v>5575.1</v>
+        <v>5234.95</v>
       </c>
       <c r="D31" t="n">
-        <v>5575.1</v>
+        <v>5201.05</v>
       </c>
       <c r="E31" t="n">
-        <v>5575.1</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" s="2" t="n">
-        <v>45899.16465969908</v>
+        <v>5103.41</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5573.95</v>
+      </c>
+      <c r="G31" t="n">
+        <v>208.49</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>45901.13578667824</v>
       </c>
     </row>
     <row r="32">
@@ -1203,20 +1358,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C32" t="n">
-        <v>5582.81</v>
+        <v>5280.66</v>
       </c>
       <c r="D32" t="n">
-        <v>5582.81</v>
+        <v>5250.02</v>
       </c>
       <c r="E32" t="n">
-        <v>5582.81</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" s="2" t="n">
-        <v>45899.1647358912</v>
+        <v>5094.39</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5587.13</v>
+      </c>
+      <c r="G32" t="n">
+        <v>228.72</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>45901.13584520834</v>
       </c>
     </row>
     <row r="33">
@@ -1226,20 +1386,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C33" t="n">
-        <v>5404.72</v>
+        <v>5221.23</v>
       </c>
       <c r="D33" t="n">
-        <v>5404.72</v>
+        <v>5198.33</v>
       </c>
       <c r="E33" t="n">
-        <v>5404.72</v>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" s="2" t="n">
-        <v>45899.16480751157</v>
+        <v>5064.28</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5450.23</v>
+      </c>
+      <c r="G33" t="n">
+        <v>170.8</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>45901.13590356481</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,14 +1445,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16368174768</v>
+        <v>45901.1338146412</v>
       </c>
       <c r="B2" t="n">
-        <v>5568.53</v>
+        <v>5560.62</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: cd8ddafa-b75a-4412-baf4-90cc8e4eafb1	Duration: 5568.53 ms	Billed Duration: 6240 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 670.52 ms	
+          <t xml:space="preserve">REPORT RequestId: f795c2d0-0ba0-4496-b262-d1d5f387eeef	Duration: 5560.62 ms	Billed Duration: 6249 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 687.51 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.1339144213</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5103.44</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 6f0add3c-e2ef-4a1e-9956-b0f0a9ab4a00	Duration: 5103.44 ms	Billed Duration: 5104 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13401811343</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5113.9</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 785ceac5-86b0-45d4-9cf8-02adc6f30fb8	Duration: 5113.90 ms	Billed Duration: 5114 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13412482639</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5125.33</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 79ed5a49-3641-475d-9ca6-1c89b1301330	Duration: 5125.33 ms	Billed Duration: 5126 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13422783565</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5125.55</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 2c78482a-0a71-4ec1-a82e-878601980784	Duration: 5125.55 ms	Billed Duration: 5126 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13433084491</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5110.88</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: c25cae58-1933-446d-b7e6-637b7be85dde	Duration: 5110.88 ms	Billed Duration: 5111 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13444033565</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5113.57</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: c27a4597-0b03-4c80-a017-422f041b9e87	Duration: 5113.57 ms	Billed Duration: 5114 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13454149305</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5113.33</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: cef131de-fa55-4151-a14c-3bc6c5373ac8	Duration: 5113.33 ms	Billed Duration: 5114 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13481210648</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5119.17</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 1dc1a09b-adfa-4afc-ad60-1b286fffc40b	Duration: 5119.17 ms	Billed Duration: 5120 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13491765047</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5119.31</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: e018af10-2918-4dc6-9988-eeda196bc4d2	Duration: 5119.31 ms	Billed Duration: 5120 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13502298611</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5090.39</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: f7662424-0012-4b22-8b06-3c5bf41226a6	Duration: 5090.39 ms	Billed Duration: 5091 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -1303,7 +1608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1330,14 +1635,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16375833334</v>
+        <v>45901.13389207176</v>
       </c>
       <c r="B2" t="n">
-        <v>5569.57</v>
+        <v>5555.16</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: 88bf2a77-4ac7-4fe8-960b-4c8851b6314e	Duration: 5569.57 ms	Billed Duration: 6115 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 545.05 ms	
+          <t xml:space="preserve">REPORT RequestId: cb22014a-651b-499c-be7d-e3d55999809a	Duration: 5555.16 ms	Billed Duration: 6211 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 655.39 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13397354167</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5117.72</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 3ccc99f0-53f6-49f5-8cbe-68bb38d8ae28	Duration: 5117.72 ms	Billed Duration: 5118 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13407678241</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5120.49</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: f3d34237-e810-4325-8050-fa19c809f090	Duration: 5120.49 ms	Billed Duration: 5121 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13418372685</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5114.89</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 3f5a0c56-ec4d-4cb2-9784-6990376edb26	Duration: 5114.89 ms	Billed Duration: 5115 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13428650463</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5119.1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 24ef44e3-29ef-41a1-8946-d4dd2706d760	Duration: 5119.10 ms	Billed Duration: 5120 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13438974537</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5117.67</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 5fd35196-66f4-4f14-aa50-78a0df041cba	Duration: 5117.67 ms	Billed Duration: 5118 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13449900463</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5118.18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 3573f564-afe8-4bf2-b192-ef17d69fe143	Duration: 5118.18 ms	Billed Duration: 5119 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13460017361</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5115.09</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 6fafd8b2-5f72-4818-b19e-9cdc920ea3f1	Duration: 5115.09 ms	Billed Duration: 5116 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13487100694</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5119.87</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 51a40e55-9dd4-49cd-9d9b-c41e714b6c22	Duration: 5119.87 ms	Billed Duration: 5120 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13497633102</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5114.92</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 651689d0-d893-4315-8461-42355de3ce87	Duration: 5114.92 ms	Billed Duration: 5115 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13508188658</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5118.14</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: aac9fe3c-451e-43d6-8a74-a38bd7db2f5d	Duration: 5118.14 ms	Billed Duration: 5119 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -1353,7 +1798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1380,14 +1825,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16383261574</v>
+        <v>45901.13396868056</v>
       </c>
       <c r="B2" t="n">
-        <v>5560.17</v>
+        <v>5576.15</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: d812b30d-ede1-419d-8e21-425d8e658ba9	Duration: 5560.17 ms	Billed Duration: 6224 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 663.35 ms	
+          <t xml:space="preserve">REPORT RequestId: 2dedf176-bb1b-471e-af0d-a2bd142ee30c	Duration: 5576.15 ms	Billed Duration: 6249 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 671.95 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13403233796</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5110.57</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 066238dd-ac36-4616-8e16-6a7b6f1ab306	Duration: 5110.57 ms	Billed Duration: 5111 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.1341353588</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5112.73</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: a65aed6c-9284-465a-ac0a-d8784602543d	Duration: 5112.73 ms	Billed Duration: 5113 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13424252315</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5121.62</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 8a9fe6b8-91ac-45cd-a62f-442ada0d6481	Duration: 5121.62 ms	Billed Duration: 5122 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13434530092</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5117.27</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 0ab6f611-4f5f-451a-a2de-f958ad6ea732	Duration: 5117.27 ms	Billed Duration: 5118 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13444831019</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5110.01</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 1f5f7cf0-6ae8-4ccb-a0e7-d12f6c36bdcc	Duration: 5110.01 ms	Billed Duration: 5111 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.1345575926</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5108.82</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: b18c2c7f-90e1-47af-8077-841f491ca38c	Duration: 5108.82 ms	Billed Duration: 5109 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13465896991</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5126.36</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 77323626-7c3f-422a-b566-5f445ccc17fb	Duration: 5126.36 ms	Billed Duration: 5127 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13492979167</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5126.5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 5bb57eac-051a-4263-835f-69ddd3199295	Duration: 5126.50 ms	Billed Duration: 5127 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13503488426</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5108.89</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 901642b4-c8df-41b8-916b-eeb3c5139924	Duration: 5108.89 ms	Billed Duration: 5109 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13514023148</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5092.89</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 0e8ecfb4-cb50-4586-852e-9982e59f823e	Duration: 5092.89 ms	Billed Duration: 5093 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -1403,7 +1988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,14 +2015,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16255346065</v>
+        <v>45901.13266369213</v>
       </c>
       <c r="B2" t="n">
-        <v>5556.47</v>
+        <v>5532.82</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: b4f224eb-80ea-4aaa-b656-aa6bccfb6a74	Duration: 5556.47 ms	Billed Duration: 6238 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 681.25 ms	
+          <t xml:space="preserve">REPORT RequestId: 0926c3f5-426e-4427-b060-a7b7aa2b3633	Duration: 5532.82 ms	Billed Duration: 6097 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 563.49 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13302967593</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5104.92</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 6f316f31-d0ca-44cf-b49c-9d37612555b7	Duration: 5104.92 ms	Billed Duration: 5105 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13313546297</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5107.59</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 77eef724-677f-428e-a403-362b56a2aec2	Duration: 5107.59 ms	Billed Duration: 5108 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13324216435</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5117.77</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 500f9c29-6ca1-4866-b985-07a2d1ad5097	Duration: 5117.77 ms	Billed Duration: 5118 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13334447917</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5121.05</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 34b3c990-521a-4a52-9189-bd0c676fc2f9	Duration: 5121.05 ms	Billed Duration: 5122 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13344980324</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5119.87</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: eba5829b-c65a-4f5c-8918-af134f820791	Duration: 5119.87 ms	Billed Duration: 5120 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13355907407</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5103.39</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 417eabb9-9ccf-4fb1-acd6-e85dd426a28a	Duration: 5103.39 ms	Billed Duration: 5104 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13366021991</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5125.3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 8142a6c8-0ac0-4bb6-a68f-20caab21681c	Duration: 5125.30 ms	Billed Duration: 5126 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13393105324</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5126.26</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: c3b5f249-ba78-40d3-b794-7a76fde0988a	Duration: 5126.26 ms	Billed Duration: 5127 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13403662037</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5101.41</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: b4859539-e36c-48f7-94dd-55fe02eaa5b6	Duration: 5101.41 ms	Billed Duration: 5102 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13414216435</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5121.93</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 546d855d-2274-4808-a637-15ad579fdb2d	Duration: 5121.93 ms	Billed Duration: 5122 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -1453,7 +2178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1480,14 +2205,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16390809028</v>
+        <v>45901.13404724537</v>
       </c>
       <c r="B2" t="n">
-        <v>5556.57</v>
+        <v>5555.32</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: 4d839f3c-67dd-41fd-a02b-c696b6f29070	Duration: 5556.57 ms	Billed Duration: 6224 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 666.92 ms	
+          <t xml:space="preserve">REPORT RequestId: b7e99a24-087e-4359-a148-3d0b0feab5fc	Duration: 5555.32 ms	Billed Duration: 6250 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 694.05 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.1341066088</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5602.31</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 4cb97437-7022-4555-a3cc-58a3ae79a4a2	Duration: 5602.31 ms	Billed Duration: 6299 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 696.44 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13419458333</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5129.97</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: a81dd5aa-1c11-4628-93c4-abe0cbd69d85	Duration: 5129.97 ms	Billed Duration: 5130 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13430127314</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5122.07</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 608c076c-36e7-4653-894f-660d3ea46bad	Duration: 5122.07 ms	Billed Duration: 5123 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13440405093</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5119.46</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 13758cfc-3dab-43eb-b24e-29730b0f46c5	Duration: 5119.46 ms	Billed Duration: 5120 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13450707176</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5127.86</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 98754ca5-1728-4173-811c-b28261b20da6	Duration: 5127.86 ms	Billed Duration: 5128 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13461631945</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5115.35</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 0ef7aa68-4e37-43d3-a3a2-43b25d79de99	Duration: 5115.35 ms	Billed Duration: 5116 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13471773148</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5129.47</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 58929b60-6faf-4448-82e4-e739395b0c99	Duration: 5129.47 ms	Billed Duration: 5130 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13498833333</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5111.35</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: cf0a4aee-e5b4-47d0-9588-ac834e241230	Duration: 5111.35 ms	Billed Duration: 5112 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13509364583</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5108.91</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: fc23d8c7-236e-40a9-b0e0-4b10b4e5877f	Duration: 5108.91 ms	Billed Duration: 5109 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13519896991</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5108.57</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: b0bef9bf-c8b4-43a8-9cf9-68eea8786f55	Duration: 5108.57 ms	Billed Duration: 5109 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -1503,7 +2368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1530,14 +2395,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16398145833</v>
+        <v>45901.13412408565</v>
       </c>
       <c r="B2" t="n">
-        <v>5549.02</v>
+        <v>5576.27</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: 491aa456-702c-4880-8a18-b697aa76e842	Duration: 5549.02 ms	Billed Duration: 6122 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 572.52 ms	
+          <t xml:space="preserve">REPORT RequestId: c0d17bb3-6735-4240-a254-5d9211dbb573	Duration: 5576.27 ms	Billed Duration: 6259 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 682.40 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13417878472</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5576.73</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: f6da122c-0183-467f-81d3-48187a2f87f5	Duration: 5576.73 ms	Billed Duration: 6143 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 565.53 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13425355324</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5132.23</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 553b7864-1a6e-4ea4-948c-0cdf917093f7	Duration: 5132.23 ms	Billed Duration: 5133 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13436003472</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5116.04</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: c39caa10-806c-431a-be2f-e8b612bc30de	Duration: 5116.04 ms	Billed Duration: 5117 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.1344628125</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5108.31</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 5716d059-2ee4-46d3-9d83-1e9e383091ad	Duration: 5108.31 ms	Billed Duration: 5109 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13456604167</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5143.63</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 1a4ad44b-283a-4cfa-8a77-5f08cfaecf37	Duration: 5143.63 ms	Billed Duration: 5144 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13467508102</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5126.94</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 55072f57-3872-49f6-bc62-5fca8c4a767e	Duration: 5126.94 ms	Billed Duration: 5127 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13477670139</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5111.74</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 4183f3d8-ad10-4e48-a358-0e99d4423e05	Duration: 5111.74 ms	Billed Duration: 5112 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13504753472</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5126.52</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 8ae6ee41-0ace-4202-b96a-a3f9617ea241	Duration: 5126.52 ms	Billed Duration: 5127 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13515238426</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5124.45</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: e15b01b8-6fb8-4d06-b7cc-7b82f35a6fff	Duration: 5124.45 ms	Billed Duration: 5125 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13525793982</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5127.44</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 93aa6b87-decc-465e-bab4-8b9598e862a3	Duration: 5127.44 ms	Billed Duration: 5128 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -1553,7 +2558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1580,14 +2585,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16405771991</v>
+        <v>45901.13420141204</v>
       </c>
       <c r="B2" t="n">
-        <v>5575.38</v>
+        <v>5573.63</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: c8f891af-ee81-4fb3-88f8-1e0cc4974a82	Duration: 5575.38 ms	Billed Duration: 6315 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 738.86 ms	
+          <t xml:space="preserve">REPORT RequestId: 73df263d-a884-4e99-895b-4e87320a247f	Duration: 5573.63 ms	Billed Duration: 6270 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 696.34 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13425331019</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5561.76</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 5b98be46-6924-4d93-95d5-6ae3a6a25ce5	Duration: 5561.76 ms	Billed Duration: 6262 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 699.37 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13431252315</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5116.46</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 889ca963-a866-44fd-89e4-e193e1618dd9	Duration: 5116.46 ms	Billed Duration: 5117 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13441877314</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5123.87</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 95dc00e4-1c91-4507-a900-7bebfccb6657	Duration: 5123.87 ms	Billed Duration: 5124 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13452155093</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5122.1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: aa157b28-207e-4c0f-9c4b-713e934fb88c	Duration: 5122.10 ms	Billed Duration: 5123 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13462479167</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5113.29</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 701eac48-310b-4fb9-a3c7-2c8b44df718f	Duration: 5113.29 ms	Billed Duration: 5114 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13473381945</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5113.73</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 1207129b-eb87-4035-8f65-100dbd8f65fd	Duration: 5113.73 ms	Billed Duration: 5114 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13483543981</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5124.86</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 8be140b7-20a1-4892-a8d4-a2a3b1464fb2	Duration: 5124.86 ms	Billed Duration: 5125 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13510604166</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5109</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: b7ce17e8-3164-483b-8c1f-92e88be14e21	Duration: 5109.00 ms	Billed Duration: 5110 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13521113426</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5122.99</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 60d6b266-84dc-4a70-ad6a-c8616ea9aee9	Duration: 5122.99 ms	Billed Duration: 5123 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13531645833</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5110.63</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: d9dd7fa0-511f-4283-9594-20462e474750	Duration: 5110.63 ms	Billed Duration: 5111 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -1603,7 +2748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1630,14 +2775,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16413265046</v>
+        <v>45901.13427841435</v>
       </c>
       <c r="B2" t="n">
-        <v>5593.9</v>
+        <v>5580.75</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: 00e53d41-4da1-4ea5-90ac-5d99cfd1f85c	Duration: 5593.90 ms	Billed Duration: 6273 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 678.54 ms	
+          <t xml:space="preserve">REPORT RequestId: 5426c306-e874-4594-b4c9-eb846adfe1a1	Duration: 5580.75 ms	Billed Duration: 6286 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 704.84 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13432791667</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5602.09</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 2e874d10-074e-472c-ab25-245ea0568faf	Duration: 5602.09 ms	Billed Duration: 6336 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 733.40 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13437170139</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5126.23</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: af0b5fe1-a1fe-4814-a075-c81591bcbdd3	Duration: 5126.23 ms	Billed Duration: 5127 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13447795139</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5128.06</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 13195b9f-cbfc-466c-b8ab-83f7288b314a	Duration: 5128.06 ms	Billed Duration: 5129 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.1345800463</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5107.63</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 6eb921a8-a58c-44e9-a53b-f226f8022c43	Duration: 5107.63 ms	Billed Duration: 5108 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13468350694</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5115.66</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 5f411464-dc00-4c98-8758-6bebbe449875	Duration: 5115.66 ms	Billed Duration: 5116 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.1347925463</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5117.72</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 3db8feb7-b0a5-4d36-9dd2-911fd75bd267	Duration: 5117.72 ms	Billed Duration: 5118 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13489415509</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5122.02</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 0866c178-118f-4de1-b87e-1062625c85c0	Duration: 5122.02 ms	Billed Duration: 5123 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13516476852</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5120.96</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: ad70830f-c44b-433d-a453-11a7817be6ba	Duration: 5120.96 ms	Billed Duration: 5121 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13526984954</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5125.04</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 8f575e47-952e-4b87-b5c3-9003cd865ad6	Duration: 5125.04 ms	Billed Duration: 5126 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13537540509</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5125.28</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 78341239-4180-4308-a153-aba760602a82	Duration: 5125.28 ms	Billed Duration: 5126 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -1653,7 +2938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1680,14 +2965,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16420855324</v>
+        <v>45901.13435668981</v>
       </c>
       <c r="B2" t="n">
-        <v>5574.37</v>
+        <v>5561.72</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: cf63560a-2eb0-4a22-a973-0a606065fa18	Duration: 5574.37 ms	Billed Duration: 6256 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 681.28 ms	
+          <t xml:space="preserve">REPORT RequestId: 1fb37ba1-5ece-4a48-b8d2-5e28cdcead31	Duration: 5561.72 ms	Billed Duration: 6223 ms	Memory Size: 128 MB	Max Memory Used: 87 MB	Init Duration: 661.24 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13440128473</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5567.6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: cbf38323-f373-43bb-add6-f53d566ebf2b	Duration: 5567.60 ms	Billed Duration: 6235 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 666.69 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13443030092</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5100.5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: f2c7d3e7-4c8f-4d09-97d6-2db552b20183	Duration: 5100.50 ms	Billed Duration: 5101 ms	Memory Size: 128 MB	Max Memory Used: 87 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13453655093</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5100</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: de368442-a533-4772-8194-b3b94ad0d2b1	Duration: 5100.00 ms	Billed Duration: 5100 ms	Memory Size: 128 MB	Max Memory Used: 87 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.1346388426</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5114.68</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: fb54026b-481c-456a-9346-9fa86957d8e2	Duration: 5114.68 ms	Billed Duration: 5115 ms	Memory Size: 128 MB	Max Memory Used: 87 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13474231482</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5125.61</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: fa612484-0468-48ee-a544-a127ba2f5d23	Duration: 5125.61 ms	Billed Duration: 5126 ms	Memory Size: 128 MB	Max Memory Used: 87 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13485157408</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5125.86</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 7b8e73bf-144a-4ad6-b715-1a3f2161e2f5	Duration: 5125.86 ms	Billed Duration: 5126 ms	Memory Size: 128 MB	Max Memory Used: 87 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13495274306</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5112.94</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 590f26af-9f12-4f47-a168-708d3a1c6fba	Duration: 5112.94 ms	Billed Duration: 5113 ms	Memory Size: 128 MB	Max Memory Used: 87 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13522335648</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5109.55</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 9c144824-f2fe-463a-85af-361df9335ea1	Duration: 5109.55 ms	Billed Duration: 5110 ms	Memory Size: 128 MB	Max Memory Used: 87 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.1353284375</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5113.9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: e2ba983a-81ff-4263-af1d-2fa0ae8c8850	Duration: 5113.90 ms	Billed Duration: 5114 ms	Memory Size: 128 MB	Max Memory Used: 87 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13543399305</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5111.14</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: c6f02d39-8f9d-4ff5-853c-48726c110427	Duration: 5111.14 ms	Billed Duration: 5112 ms	Memory Size: 128 MB	Max Memory Used: 87 MB	
 </t>
         </is>
       </c>
@@ -1703,7 +3128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1730,14 +3155,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16428324074</v>
+        <v>45901.13443553241</v>
       </c>
       <c r="B2" t="n">
-        <v>5538.43</v>
+        <v>5584.77</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: 73481e5c-44f1-46ce-a218-97b6d9982901	Duration: 5538.43 ms	Billed Duration: 6231 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 692.39 ms	
+          <t xml:space="preserve">REPORT RequestId: 3cdf031f-cc53-4fc3-9a5e-32dedd881298	Duration: 5584.77 ms	Billed Duration: 6278 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 692.35 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13447465278</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5556.2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 08e5fecf-31d8-48f6-be10-16b5b5634024	Duration: 5556.20 ms	Billed Duration: 6228 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 671.19 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13450446759</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5622.22</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 42582da6-3a31-4575-9071-046f4318dfa2	Duration: 5622.22 ms	Billed Duration: 6305 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 681.96 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.1345952199</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5093.69</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 6566074b-1ac1-44b6-a3a6-68b507c93201	Duration: 5093.69 ms	Billed Duration: 5094 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13469730324</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5104.87</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: ff486f5b-2b48-4e2a-a8c8-1a6a72c9c227	Duration: 5104.87 ms	Billed Duration: 5105 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13480077546</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5096.49</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 7630bc71-cac3-4f60-af44-688ad9897864	Duration: 5096.49 ms	Billed Duration: 5097 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13491047454</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5127.82</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: c602290e-699f-4191-9c78-0d5be9230499	Duration: 5127.82 ms	Billed Duration: 5128 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13501141204</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5113.58</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: e56bb0f8-bc60-4735-a943-d78a559b4e11	Duration: 5113.58 ms	Billed Duration: 5114 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13528246528</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5123.2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 417db983-e174-4d51-999c-b06aa941eab0	Duration: 5123.20 ms	Billed Duration: 5124 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13538709491</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5114.37</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 3c389f92-a5ac-450e-998a-f9f5f1731d57	Duration: 5114.37 ms	Billed Duration: 5115 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13549265046</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5111.9</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 5ad96ee4-ed7b-414e-ad84-8824d7e6158b	Duration: 5111.90 ms	Billed Duration: 5112 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -1753,7 +3318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1780,14 +3345,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16247818287</v>
+        <v>45901.13258833333</v>
       </c>
       <c r="B2" t="n">
-        <v>5538.18</v>
+        <v>5508.1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: d9035c92-f17c-4c12-b13d-7d57d2b8402a	Duration: 5538.18 ms	Billed Duration: 6231 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 692.60 ms	
+          <t xml:space="preserve">REPORT RequestId: 8d2474ee-bb19-40e3-b1fd-9e7f57ee1508	Duration: 5508.10 ms	Billed Duration: 6165 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 656.41 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13297045139</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5088.55</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 6e2848e6-f330-420c-830b-4b66eaba20d9	Duration: 5088.55 ms	Billed Duration: 5089 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13307600695</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5069.96</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 0064dd67-bae2-45b1-8058-e8f641470229	Duration: 5069.96 ms	Billed Duration: 5070 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13318273148</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5050.72</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 798b8f77-d4f5-4678-b972-b840a3e9d3b0	Duration: 5050.72 ms	Billed Duration: 5051 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13328504629</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5080.11</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: f4dda991-8d8f-4cb7-abb9-420b15355aee	Duration: 5080.11 ms	Billed Duration: 5081 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13339060186</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5087.83</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: ed03a000-9a5f-4350-8b79-db665db667c7	Duration: 5087.83 ms	Billed Duration: 5088 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13350009259</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5078.76</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 5cb95540-a7be-405e-b89b-8ddbeac66dc2	Duration: 5078.76 ms	Billed Duration: 5079 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13360101852</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5082.55</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 97bddc80-d6ca-4288-9cb9-75e803eeebdd	Duration: 5082.55 ms	Billed Duration: 5083 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13387185185</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5077.08</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 6439e267-083b-4c47-9db0-df26afc9def7	Duration: 5077.08 ms	Billed Duration: 5078 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13397763889</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5079.49</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 2155b667-c430-41ba-9300-af43c3fbf0d3	Duration: 5079.49 ms	Billed Duration: 5080 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13408296296</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5076.54</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 477fde42-6a7d-4768-9e64-8c1df431897f	Duration: 5076.54 ms	Billed Duration: 5077 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -1803,7 +3508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1830,14 +3535,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16435953704</v>
+        <v>45901.13451364583</v>
       </c>
       <c r="B2" t="n">
-        <v>5574.72</v>
+        <v>5556.46</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: 4deb7a29-fa22-4892-8017-9fef5d1a9299	Duration: 5574.72 ms	Billed Duration: 6260 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 684.84 ms	
+          <t xml:space="preserve">REPORT RequestId: 1fdbb482-640a-46c3-ba2e-27560deb57d9	Duration: 5556.46 ms	Billed Duration: 6228 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 671.03 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13454811343</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5556.84</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: b84dcfa0-5532-4c2c-9a3e-6c20485d9fe0	Duration: 5556.84 ms	Billed Duration: 6223 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 665.44 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13457881944</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5576.37</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 2e25315a-7fa9-42b8-9b7d-1bfec0f8b143	Duration: 5576.37 ms	Billed Duration: 6327 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 750.57 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13465451389</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5123.73</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 0bb0f558-931e-4550-a9e4-2dbe77ffe448	Duration: 5123.73 ms	Billed Duration: 5124 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13475614583</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5095.69</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: b69395b1-45da-4d30-91cb-ad2952b5f6aa	Duration: 5095.69 ms	Billed Duration: 5096 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13485960648</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5111.72</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 494cbd11-cd2c-466f-a71d-db351c2fea37	Duration: 5111.72 ms	Billed Duration: 5112 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.1349693287</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5116.41</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 4f0918f7-b6ba-4bb1-98fd-1be152414126	Duration: 5116.41 ms	Billed Duration: 5117 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13507025463</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5122.45</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 655e6768-03dd-429a-93cf-c2792adaea11	Duration: 5122.45 ms	Billed Duration: 5123 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13534109954</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5095.6</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 17a43592-4870-4ebd-a9fc-ef77a70a56c3	Duration: 5095.60 ms	Billed Duration: 5096 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13544571759</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5114.73</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 44c9c3af-50fc-40a2-b977-be7f92bea90c	Duration: 5114.73 ms	Billed Duration: 5115 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13555150463</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5116.61</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: f9dd9658-3ea3-4c84-b3c1-48d43103e8b2	Duration: 5116.61 ms	Billed Duration: 5117 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -1853,7 +3698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1880,14 +3725,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16443493056</v>
+        <v>45901.13459149306</v>
       </c>
       <c r="B2" t="n">
-        <v>5555.57</v>
+        <v>5536.63</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: e0c7fbb4-af57-45e4-86d6-eca7fd3bea22	Duration: 5555.57 ms	Billed Duration: 6237 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 681.43 ms	
+          <t xml:space="preserve">REPORT RequestId: 64c8a47a-f4c5-4800-985b-f4b2ddf0698b	Duration: 5536.63 ms	Billed Duration: 6206 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 668.93 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13462225694</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5556.39</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 4b3b77e9-2f26-4555-a72b-780b362fdc96	Duration: 5556.39 ms	Billed Duration: 6235 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 678.22 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13465053241</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5556.87</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 1319f65e-1d38-4df2-a9bc-ca975e9e038f	Duration: 5556.87 ms	Billed Duration: 6106 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 548.96 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13471327546</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5112.55</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 89fb3a1d-6ae8-4aa1-909e-ae4f48b48453	Duration: 5112.55 ms	Billed Duration: 5113 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13481488426</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5109.46</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: bd40cf5b-644c-40dc-b18d-45e93f806fbc	Duration: 5109.46 ms	Billed Duration: 5110 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13491859954</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5123.33</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 36f1266c-d9ab-448a-afe5-44fec9c82302	Duration: 5123.33 ms	Billed Duration: 5124 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13502832176</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5128.05</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 150ab9a7-0005-49ca-a218-b477fad80b34	Duration: 5128.05 ms	Billed Duration: 5129 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13512900463</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5120.3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 54b37ef8-2fd9-4356-91aa-93cf05c8ee7d	Duration: 5120.30 ms	Billed Duration: 5121 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13540006944</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5127.56</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 7691760b-5c91-42b6-bc2a-57dfc2959b11	Duration: 5127.56 ms	Billed Duration: 5128 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13550469907</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5115.68</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 238dc9ef-c15c-4f97-b892-58adb50f15e1	Duration: 5115.68 ms	Billed Duration: 5116 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13561025463</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5125.59</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 29318985-2b6b-4a1a-adb2-73553dba9682	Duration: 5125.59 ms	Billed Duration: 5126 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -1903,7 +3888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,14 +3915,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16450952546</v>
+        <v>45901.13466572917</v>
       </c>
       <c r="B2" t="n">
-        <v>5547.24</v>
+        <v>5559.66</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: 8187fd4f-bef3-487b-9835-c00ea4f9de35	Duration: 5547.24 ms	Billed Duration: 6226 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 678.75 ms	
+          <t xml:space="preserve">REPORT RequestId: 1564e2b4-da52-4e4f-a587-3948861c0432	Duration: 5559.66 ms	Billed Duration: 6115 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 554.95 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13469471065</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5560.02</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 58de77ba-3304-4163-a0f2-715b5dd62ef4	Duration: 5560.02 ms	Billed Duration: 6153 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 592.18 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13472443287</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5586.78</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 23da3c1e-4eb0-4cf4-bcee-64740a40c33d	Duration: 5586.78 ms	Billed Duration: 6267 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 679.35 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13477247685</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5124.56</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 6eb22770-9695-4515-b7ac-88a74d9ccbfe	Duration: 5124.56 ms	Billed Duration: 5125 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13487342592</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5100.82</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: e5c72143-7620-4116-a0b5-d031af65e261	Duration: 5100.82 ms	Billed Duration: 5101 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13497733796</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5119.94</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 8591191a-077e-4ed3-b19e-a3f6ab0c2185	Duration: 5119.94 ms	Billed Duration: 5120 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13508706018</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5122.68</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 3602a19d-cb14-4d51-936c-302bbf97ef3c	Duration: 5122.68 ms	Billed Duration: 5123 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13518753472</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5109.7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 222718d2-9c7f-4227-82c6-f7f779bd8135	Duration: 5109.70 ms	Billed Duration: 5110 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13545861111</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5107.98</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: d838c117-617e-4757-817f-dd55dc6d5377	Duration: 5107.98 ms	Billed Duration: 5108 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13556344908</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5124.43</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 9ac61007-8bbb-440f-ac2b-0415a2ecddf0	Duration: 5124.43 ms	Billed Duration: 5125 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13566877315</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5109.42</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 66f7dd3e-bacb-4274-8f5f-e2cbfcd91ad6	Duration: 5109.42 ms	Billed Duration: 5110 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -1953,7 +4078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1980,14 +4105,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16458381945</v>
+        <v>45901.13474153935</v>
       </c>
       <c r="B2" t="n">
-        <v>5543.03</v>
+        <v>5561.53</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: b8849f8f-9eb4-47e2-bac5-543a2992fb6f	Duration: 5543.03 ms	Billed Duration: 6210 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 666.19 ms	
+          <t xml:space="preserve">REPORT RequestId: fd6be5fa-886b-4f4d-a693-19c33b892296	Duration: 5561.53 ms	Billed Duration: 6230 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 667.63 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13476666667</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5566.06</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: abaccc5a-250f-484e-b29d-7b7d3f59484b	Duration: 5566.06 ms	Billed Duration: 6113 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 546.18 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13479792824</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5573.81</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 8a1b4160-3690-4de7-aab8-5f64f8620d18	Duration: 5573.81 ms	Billed Duration: 6262 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 687.77 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13483125</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5120.46</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: e39f622f-1c71-42eb-b27a-4473404fb4e8	Duration: 5120.46 ms	Billed Duration: 5121 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13493240741</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5120.66</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 834aa52b-1d5a-4c6c-9cef-711b1cc4d15c	Duration: 5120.66 ms	Billed Duration: 5121 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.1350358912</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5104.61</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: ee8ef50a-2981-4f93-b6e2-a87319378404	Duration: 5104.61 ms	Billed Duration: 5105 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13514606481</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5147.97</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: bf53b08e-5bbf-4136-a87e-f06abed90dff	Duration: 5147.97 ms	Billed Duration: 5148 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13524652777</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5113.38</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 5b7b5b61-70b3-49b1-87c9-e14ad3e0854d	Duration: 5113.38 ms	Billed Duration: 5114 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13551760417</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5124.73</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 4a76c6a3-059e-4626-9451-05293f3e00ae	Duration: 5124.73 ms	Billed Duration: 5125 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13562221065</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5113.1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: f7459fab-a024-48fd-98cc-a2f87cb09377	Duration: 5113.10 ms	Billed Duration: 5114 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13572799769</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5113</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 24969fe3-f4dd-4b6f-9a18-0ece07f8df73	Duration: 5113.00 ms	Billed Duration: 5114 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -2003,7 +4268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2030,14 +4295,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16262957176</v>
+        <v>45901.13273989583</v>
       </c>
       <c r="B2" t="n">
-        <v>5588.19</v>
+        <v>5561.24</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: fcc69a98-c0f1-4407-97d7-665c7b28f429	Duration: 5588.19 ms	Billed Duration: 6304 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 715.31 ms	
+          <t xml:space="preserve">REPORT RequestId: 7c2c6210-af90-4653-88e1-eb2359f4a83c	Duration: 5561.24 ms	Billed Duration: 6296 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 734.58 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13308871528</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5111.61</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: b8755690-8c83-4463-85e3-93279ab314bf	Duration: 5111.61 ms	Billed Duration: 5112 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13319450231</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5117.89</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: c9af23d0-b8f9-46f5-97c3-2bf500271f85	Duration: 5117.89 ms	Billed Duration: 5118 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.1333005324</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5095.83</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 0eb95099-44af-4e0d-a49c-76875182221a	Duration: 5095.83 ms	Billed Duration: 5096 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13340329861</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5121.68</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 05414f13-a284-4d66-8d19-2c1a69d2118d	Duration: 5121.68 ms	Billed Duration: 5122 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13350862268</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5114.32</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 81d04caf-dd4e-4009-9654-e45d2f5af317	Duration: 5114.32 ms	Billed Duration: 5115 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13361788195</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5114.65</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 7e199923-385a-445f-afd7-a00242ffac8f	Duration: 5114.65 ms	Billed Duration: 5115 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13371903935</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5124.55</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 6145b4e4-d021-455c-bb05-c7c32d26d522	Duration: 5124.55 ms	Billed Duration: 5125 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.1339896412</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5112.85</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 68cbd7da-c9dd-480b-acf7-79ca5c30434f	Duration: 5112.85 ms	Billed Duration: 5113 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13409542824</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5109.4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 924c1df1-cdc5-41fd-a67f-99e35e854811	Duration: 5109.40 ms	Billed Duration: 5110 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13420075231</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5113.13</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 15a4ce56-aa30-45e7-a618-0431e38b3322	Duration: 5113.13 ms	Billed Duration: 5114 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -2053,7 +4458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2080,14 +4485,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16465969908</v>
+        <v>45901.13481746528</v>
       </c>
       <c r="B2" t="n">
-        <v>5575.1</v>
+        <v>5562.78</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: 7a892f1e-8421-47a3-ac79-96e2a14ed871	Duration: 5575.10 ms	Billed Duration: 6251 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 675.58 ms	
+          <t xml:space="preserve">REPORT RequestId: f37f90c2-e909-4e80-843a-9964c8e85f21	Duration: 5562.78 ms	Billed Duration: 6242 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 678.77 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13484049768</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5573.95</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: e80662f4-eb4e-4f2c-8dcb-07f2d5fe4ac9	Duration: 5573.95 ms	Billed Duration: 6271 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 696.52 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13486978009</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5540.61</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 38749e1f-7039-4fb2-a9b7-caeba7a867c7	Duration: 5540.61 ms	Billed Duration: 6136 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 594.86 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13489015046</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5124</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 643a375e-158f-4f64-a8bf-5dc3df9561ed	Duration: 5124.00 ms	Billed Duration: 5124 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13499107639</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5108.56</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 528519e0-8d7b-402f-a2cd-1e702797abbc	Duration: 5108.56 ms	Billed Duration: 5109 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13509478009</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5114.94</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 2a536342-a38f-4862-87c6-9784b879bb43	Duration: 5114.94 ms	Billed Duration: 5115 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13520451389</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5103.41</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 5b598065-db56-425f-8110-9ee328291d42	Duration: 5103.41 ms	Billed Duration: 5104 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13530497685</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5103.56</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: ba9ca459-6c34-462f-962f-0fc79d6deea1	Duration: 5103.56 ms	Billed Duration: 5104 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13557628472</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5105.15</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: edf65e75-616c-49f6-b788-8146915d36c8	Duration: 5105.15 ms	Billed Duration: 5106 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.1356808912</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5123.07</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 5dc9e85d-0f7a-4598-abb4-905e9217f767	Duration: 5123.07 ms	Billed Duration: 5124 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13578667824</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5124.4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 7ac016bd-7d8f-49ff-a6f5-4e64fd6763d7	Duration: 5124.40 ms	Billed Duration: 5125 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -2103,7 +4648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2130,14 +4675,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.1647358912</v>
+        <v>45901.13489145834</v>
       </c>
       <c r="B2" t="n">
-        <v>5582.81</v>
+        <v>5565.27</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: 490cecb2-394f-4175-91aa-b07cf3e193a3	Duration: 5582.81 ms	Billed Duration: 6282 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 698.42 ms	
+          <t xml:space="preserve">REPORT RequestId: 2bd3649b-844f-42f1-8a13-0b0b6b1e8fa2	Duration: 5565.27 ms	Billed Duration: 6140 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 573.86 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13491383102</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5552.98</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: dcc704bc-5628-4f1d-afde-ab8d95166643	Duration: 5552.98 ms	Billed Duration: 6237 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 683.28 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13494344908</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5587.13</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 4f94a58c-caef-4c47-8751-9ec682ca7d7a	Duration: 5587.13 ms	Billed Duration: 6276 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 687.89 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13496347222</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5569.88</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 0c0d39a3-9968-4a23-b237-662bfec1fdba	Duration: 5569.88 ms	Billed Duration: 6240 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 670.11 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13505004629</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5118.98</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 0210fcc1-ac36-4d44-b741-9b9223856b47	Duration: 5118.98 ms	Billed Duration: 5119 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13515351852</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5115.94</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: d55faf0b-7a6f-4b76-ba62-1b581b97ca4a	Duration: 5115.94 ms	Billed Duration: 5116 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13526347222</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5125.78</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 689fdde7-9ac7-4a9a-9e6e-466c28f1ea91	Duration: 5125.78 ms	Billed Duration: 5126 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13536393519</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5115.68</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 6903fa87-dd74-4553-b374-90bd710b8462	Duration: 5115.68 ms	Billed Duration: 5116 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13563523148</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5120.21</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: fe201459-16e0-46c7-a14f-060ad218ed31	Duration: 5120.21 ms	Billed Duration: 5121 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13573962963</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5121.07</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: c9416027-38c3-4689-a029-b1258411b8f4	Duration: 5121.07 ms	Billed Duration: 5122 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13584520834</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5094.39</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 28638a36-9c77-4676-ba7c-12314fdbc9a0	Duration: 5094.39 ms	Billed Duration: 5095 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -2153,7 +4838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,14 +4865,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16480751157</v>
+        <v>45901.13496444444</v>
       </c>
       <c r="B2" t="n">
-        <v>5404.72</v>
+        <v>5389.04</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: 5cd23715-0371-4406-b26a-5579ed7542b7	Duration: 5404.72 ms	Billed Duration: 5936 ms	Memory Size: 128 MB	Max Memory Used: 86 MB	Init Duration: 530.75 ms	
+          <t xml:space="preserve">REPORT RequestId: df45a053-4977-41ea-ae9d-d8565ddb55c2	Duration: 5389.04 ms	Billed Duration: 6030 ms	Memory Size: 128 MB	Max Memory Used: 86 MB	Init Duration: 640.11 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13498560185</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5396.48</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 4b870501-5630-4b11-aaf3-55be49966c13	Duration: 5396.48 ms	Billed Duration: 6064 ms	Memory Size: 128 MB	Max Memory Used: 86 MB	Init Duration: 666.71 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13501333333</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5361.96</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 6897033a-705e-423d-af8f-ce4eb67d393c	Duration: 5361.96 ms	Billed Duration: 5908 ms	Memory Size: 128 MB	Max Memory Used: 85 MB	Init Duration: 545.26 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13503459491</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5393.51</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 896ade2e-89cd-4fed-98b7-b3219bde491e	Duration: 5393.51 ms	Billed Duration: 6046 ms	Memory Size: 128 MB	Max Memory Used: 86 MB	Init Duration: 652.00 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13511261574</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5450.23</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 7ee94506-69a5-4218-8fc7-9c17bb56e5c3	Duration: 5450.23 ms	Billed Duration: 5451 ms	Memory Size: 128 MB	Max Memory Used: 86 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.1352119213</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5090.04</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: ed8144c4-6d58-4dd0-9ec9-0a48dfd3366f	Duration: 5090.04 ms	Billed Duration: 5091 ms	Memory Size: 128 MB	Max Memory Used: 86 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13532163195</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5064.28</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 689dc3c3-5f48-491c-84f5-5afadb620fac	Duration: 5064.28 ms	Billed Duration: 5065 ms	Memory Size: 128 MB	Max Memory Used: 86 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13542209491</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5072.19</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 84d4e7d1-5223-4776-9b09-684c4e2b71a6	Duration: 5072.19 ms	Billed Duration: 5073 ms	Memory Size: 128 MB	Max Memory Used: 86 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.1356933912</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5073.79</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: e5ce1999-e375-421e-9c32-95d88608a363	Duration: 5073.79 ms	Billed Duration: 5074 ms	Memory Size: 128 MB	Max Memory Used: 86 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13579777778</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5072.57</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: bca5034a-56ff-4dee-a074-4ef1e6acf7db	Duration: 5072.57 ms	Billed Duration: 5073 ms	Memory Size: 128 MB	Max Memory Used: 86 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13590356481</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5069.47</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: d6c8861f-0833-4c83-ac0e-1ea6881db97c	Duration: 5069.47 ms	Billed Duration: 5070 ms	Memory Size: 128 MB	Max Memory Used: 86 MB	
 </t>
         </is>
       </c>
@@ -2203,7 +5028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2230,14 +5055,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16270635417</v>
+        <v>45901.13281488426</v>
       </c>
       <c r="B2" t="n">
-        <v>5575.06</v>
+        <v>5554.04</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: f1cf6417-5ae9-46b9-9f7e-362771660034	Duration: 5575.06 ms	Billed Duration: 6245 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 669.54 ms	
+          <t xml:space="preserve">REPORT RequestId: 090cda60-dd5a-4578-9678-26a5b7f4cbc8	Duration: 5554.04 ms	Billed Duration: 6229 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 674.74 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13314798611</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5124.23</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: be3979d1-5b7a-4491-8bb2-bdf59bf01722	Duration: 5124.23 ms	Billed Duration: 5125 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13325310185</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5105.63</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 42329e9a-7b0b-4e59-968c-284e634368af	Duration: 5105.63 ms	Billed Duration: 5106 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13335956018</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5112.1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: faf8f41b-9eb0-44b3-810a-b329922edc47	Duration: 5112.10 ms	Billed Duration: 5113 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13346210648</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5128.25</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 97565556-422e-47e3-8316-289b77093897	Duration: 5128.25 ms	Billed Duration: 5129 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13356721065</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5114.43</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 410908c1-20d7-4da4-b2eb-0459a87f1d1e	Duration: 5114.43 ms	Billed Duration: 5115 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13367646991</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5109.49</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 311ce11c-f1a6-4368-b83f-dd59189c5f6c	Duration: 5109.49 ms	Billed Duration: 5110 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13377762731</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5111.69</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 02577e1f-dcfc-468d-8435-9c21ccaab124	Duration: 5111.69 ms	Billed Duration: 5112 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13404800926</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5094.56</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 06519c3b-5eea-483b-9bdb-f0e6e15f2936	Duration: 5094.56 ms	Billed Duration: 5095 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13415424769</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5115.36</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 6be789c9-4cbe-4f4b-83e1-ff77105b6237	Duration: 5115.36 ms	Billed Duration: 5116 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13425957176</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5127.67</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 879e284d-d901-4df2-92e5-803d87c234ed	Duration: 5127.67 ms	Billed Duration: 5128 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -2253,7 +5218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2280,14 +5245,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16278180556</v>
+        <v>45901.13289101852</v>
       </c>
       <c r="B2" t="n">
-        <v>5588.46</v>
+        <v>5533.76</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: 32e3f21c-d85d-4dbd-9074-715e9fb4a718	Duration: 5588.46 ms	Billed Duration: 6285 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 696.27 ms	
+          <t xml:space="preserve">REPORT RequestId: 193d02ca-7cb4-4015-bbec-7ea7126970cc	Duration: 5533.76 ms	Billed Duration: 6121 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 586.72 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13320722222</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5120.78</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 46c94418-75d2-4728-bc2b-795b325cea7f	Duration: 5120.78 ms	Billed Duration: 5121 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13331208334</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5109.33</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 9ac0efc0-41dd-406d-bca8-d4d7b1f45520	Duration: 5109.33 ms	Billed Duration: 5110 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13341833333</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5119.08</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 0d40dfc4-3e72-432f-83e0-5f942c2093c5	Duration: 5119.08 ms	Billed Duration: 5120 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13352087963</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5109.27</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: ae18446e-7697-4cc4-b1c3-bca32b8ff61a	Duration: 5109.27 ms	Billed Duration: 5110 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13362597222</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5117.58</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 2d9d951b-1944-45b4-a173-8b02f21abd53	Duration: 5117.58 ms	Billed Duration: 5118 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13373523148</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5108.23</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: ff81fb39-8c40-4120-927b-e7d0f777b13a	Duration: 5108.23 ms	Billed Duration: 5109 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13383638889</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5126.31</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 3d851b10-f8b4-4bcc-b8c0-da642f3c663c	Duration: 5126.31 ms	Billed Duration: 5127 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13410677083</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5098.88</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: d9508854-7b31-40d7-855f-6f82e7a9ae5f	Duration: 5098.88 ms	Billed Duration: 5099 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13421300926</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5128.19</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: fbbe0aa7-00b5-4797-9b9a-f71d214bd1d3	Duration: 5128.19 ms	Billed Duration: 5129 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13431810185</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5110.17</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: c614e48f-914b-4b0e-8c1c-c4bb6b199d8d	Duration: 5110.17 ms	Billed Duration: 5111 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -2303,7 +5408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2330,14 +5435,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16315591435</v>
+        <v>45901.13327319444</v>
       </c>
       <c r="B2" t="n">
-        <v>5560.74</v>
+        <v>5570.17</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: ea06930e-4beb-4aff-a7d8-b5850ef10e01	Duration: 5560.74 ms	Billed Duration: 6232 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 671.21 ms	
+          <t xml:space="preserve">REPORT RequestId: c542d68d-6542-4b47-b34a-76741ada7c2d	Duration: 5570.17 ms	Billed Duration: 6115 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 543.85 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13350212963</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5118.22</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 653231e5-ece7-4030-923a-df90e2519218	Duration: 5118.22 ms	Billed Duration: 5119 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13360652778</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5112.96</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: a95d6d19-b71c-4be9-b112-fce61c5fc423	Duration: 5112.96 ms	Billed Duration: 5113 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13371347222</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5120.86</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 263d5d01-91a5-4e10-ba3f-11af3f836208	Duration: 5120.86 ms	Billed Duration: 5121 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13381555556</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5130</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: e2d9bb84-a7b5-4ef5-b2d0-44860ad03ff6	Duration: 5130.00 ms	Billed Duration: 5130 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.1339199537</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5131</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 1b0e9366-dbab-471c-93f2-0d931efa1209	Duration: 5131.00 ms	Billed Duration: 5132 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13402944445</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5114.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: ac735bdb-d527-4300-8c38-fc0c82ff2602	Duration: 5114.50 ms	Billed Duration: 5115 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.1341299074</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5110.94</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 90839d88-720a-4f4f-ba2f-3475782843e4	Duration: 5110.94 ms	Billed Duration: 5111 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13440121528</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5129.05</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 85b721bf-624b-4157-aef0-93737f1178df	Duration: 5129.05 ms	Billed Duration: 5130 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13450652778</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5126.23</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: a85c3dff-2136-4cf4-b6c0-7c34c0f8acd7	Duration: 5126.23 ms	Billed Duration: 5127 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13461209491</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5113.27</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 38cc2466-69eb-4b76-989c-cacc7cb2a126	Duration: 5113.27 ms	Billed Duration: 5114 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -2353,7 +5598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2380,14 +5625,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.1628566088</v>
+        <v>45901.13296905092</v>
       </c>
       <c r="B2" t="n">
-        <v>5568.54</v>
+        <v>5576.49</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: 29d22dbe-6200-4176-bfd1-c12c6da15922	Duration: 5568.54 ms	Billed Duration: 6266 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 697.06 ms	
+          <t xml:space="preserve">REPORT RequestId: abdbca78-c57f-40c7-9394-53cfdb033f05	Duration: 5576.49 ms	Billed Duration: 6257 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 679.83 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13326582176</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5097.1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 088cac6c-0da6-41f9-9df2-4c8871b7aef0	Duration: 5097.10 ms	Billed Duration: 5098 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13337113426</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5114.36</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 9dcf83a6-9bc3-468e-befd-6aa0b63dd24b	Duration: 5114.36 ms	Billed Duration: 5115 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13347762731</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5111.75</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 4cb11599-5a3e-4919-8b08-6f67cb5b2714	Duration: 5111.75 ms	Billed Duration: 5112 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13357993055</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5113.14</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 401ecce6-344c-4111-b5af-2f8ec8b75b83	Duration: 5113.14 ms	Billed Duration: 5114 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13368479167</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5125.23</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 3d3b71d8-33a3-468a-9935-4c8014ff99b6	Duration: 5125.23 ms	Billed Duration: 5126 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13379405093</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5110.79</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 82cd3728-7ddb-4179-a550-5ac518b7464d	Duration: 5110.79 ms	Billed Duration: 5111 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13389497685</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5111.48</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 86f6407a-47c0-41a8-8eb6-a1b1fa922d3b	Duration: 5111.48 ms	Billed Duration: 5112 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.1341655787</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5111.91</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 7ac08d90-9cc6-474d-8c11-ae4a6583a073	Duration: 5111.91 ms	Billed Duration: 5112 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13427159722</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5112.09</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: c6e2e7d5-f7cb-4fd1-a1c2-746d1b39c3e1	Duration: 5112.09 ms	Billed Duration: 5113 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13437668981</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5111.56</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: de066fb9-290f-4fa8-bb7c-70ae55222c45	Duration: 5111.56 ms	Billed Duration: 5112 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -2403,7 +5788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2430,14 +5815,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16293203703</v>
+        <v>45901.13304708333</v>
       </c>
       <c r="B2" t="n">
-        <v>5594.65</v>
+        <v>5596.2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: 34ccbfcd-5603-432a-bf74-649afc5c2fa6	Duration: 5594.65 ms	Billed Duration: 6275 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 680.03 ms	
+          <t xml:space="preserve">REPORT RequestId: 3b7e7e4d-97c3-4d57-8155-40d11a448ee9	Duration: 5596.20 ms	Billed Duration: 6288 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 690.95 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13332509259</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5126.52</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: bff430ad-bd2e-4bb7-bdce-10a588924536	Duration: 5126.52 ms	Billed Duration: 5127 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.1334297338</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5103.05</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: c6c45365-d513-4fb2-90d0-11bb7977660a	Duration: 5103.05 ms	Billed Duration: 5104 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13353666667</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5114.25</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 6d643879-3200-4688-8390-18de83e2bedb	Duration: 5114.25 ms	Billed Duration: 5115 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13363875</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5126.23</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 5a752063-e2f5-47d4-b177-e191fd761ecb	Duration: 5126.23 ms	Billed Duration: 5127 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13374384259</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5113.71</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: ece1ad8f-7918-45b8-a83f-767a5ee90752	Duration: 5113.71 ms	Billed Duration: 5114 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13385310185</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5114</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: e0fba129-2267-4afe-afd0-762f01f031f0	Duration: 5114.00 ms	Billed Duration: 5114 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.1339537963</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5122.95</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 2be0dfb2-7a7b-4128-a723-9d01ed69a147	Duration: 5122.95 ms	Billed Duration: 5123 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13422417824</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5104.24</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: b28ce9f9-8078-45d0-980e-6997f6837883	Duration: 5104.24 ms	Billed Duration: 5105 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13433041667</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5128.32</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 4a2fa619-f2fe-4109-84ad-8dbf89628f4a	Duration: 5128.32 ms	Billed Duration: 5129 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13443552083</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5125.59</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: dc8ef765-6371-4ce8-b5e5-e7fc52d7d220	Duration: 5125.59 ms	Billed Duration: 5126 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -2453,7 +5978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2488,6 +6013,174 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">REPORT RequestId: 3b3ec147-d9ee-4410-a32a-55ad117aad19	Duration: 5551.63 ms	Billed Duration: 6214 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 661.97 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.07088866898</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5576.03</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 4b918429-f458-429f-830f-615875b56515	Duration: 5576.03 ms	Billed Duration: 6240 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 663.68 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13312295139</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5572.37</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: b43e578a-8842-457b-b927-f72924257154	Duration: 5572.37 ms	Billed Duration: 6248 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 674.64 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.1333840625</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5118.31</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 71999f47-aff5-4ac5-bd75-8774ed40667b	Duration: 5118.31 ms	Billed Duration: 5119 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13348869213</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5110.49</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 39fc1742-1bf0-48a7-b7c8-7d81044194dd	Duration: 5110.49 ms	Billed Duration: 5111 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13359518519</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5094.22</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 516d13de-85d8-4489-b787-fe886552b70a	Duration: 5094.22 ms	Billed Duration: 5095 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13369748843</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5122.37</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 76bf1bad-5c19-4826-a7c8-3db3abddc51b	Duration: 5122.37 ms	Billed Duration: 5123 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13380258102</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5121.93</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 2f470f25-c79c-4ad6-801f-9602c20d3c20	Duration: 5121.93 ms	Billed Duration: 5122 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13391184028</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5117.53</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: f0fedf15-14a6-4739-9d2d-2ff81869d44b	Duration: 5117.53 ms	Billed Duration: 5118 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13401253472</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5128.18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 35976fde-084d-4a79-a3ef-0f401549a424	Duration: 5128.18 ms	Billed Duration: 5129 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13428269676</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5090.74</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 0041086f-1a72-40fa-8bec-b79f518ef10b	Duration: 5090.74 ms	Billed Duration: 5091 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45901.13438915509</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5122.87</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 5b717bf7-b086-4748-932a-74f6e4ed7642	Duration: 5122.87 ms	Billed Duration: 5123 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45901.13449471065</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5122.54</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 0c07793d-5169-4de1-a2e4-1fe5a5a1a24e	Duration: 5122.54 ms	Billed Duration: 5123 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -2503,7 +6196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2538,6 +6231,174 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">REPORT RequestId: e5ff486b-0f63-4b76-b682-38ac72b16274	Duration: 5562.71 ms	Billed Duration: 6239 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 675.82 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.07096461805</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5574.19</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: f8e380fd-5984-4e2e-8ed0-3a5ad0747586	Duration: 5574.19 ms	Billed Duration: 6253 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 678.46 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13319865741</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5587.31</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: e00b5598-b81f-4c35-830f-577562ec4d89	Duration: 5587.31 ms	Billed Duration: 6284 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 696.67 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13344287037</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5110.26</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: c7f35118-9bcf-4166-9b3f-b6be18deb6c3	Duration: 5110.26 ms	Billed Duration: 5111 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13354773148</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5125.77</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 5f367cb1-fa3d-4cac-956d-85982a566434	Duration: 5125.77 ms	Billed Duration: 5126 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13365422453</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5110.58</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 6cc6355e-009a-4982-86dc-46cdb527e14b	Duration: 5110.58 ms	Billed Duration: 5111 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13375629629</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5127.88</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: fb14592f-2363-4208-b7cc-266e428dcda4	Duration: 5127.88 ms	Billed Duration: 5128 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13386115741</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5113.78</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 1493efec-bbf9-4c78-aab3-16cb04404b6d	Duration: 5113.78 ms	Billed Duration: 5114 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13397041667</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5110.8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: e164858f-bcc7-4e48-b29a-d354f1000a92	Duration: 5110.80 ms	Billed Duration: 5111 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.1340713426</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5112.74</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: b22242db-e29f-42ef-991a-8a9cda4805fb	Duration: 5112.74 ms	Billed Duration: 5113 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13434194445</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5115.14</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 1b068b31-091d-4fbd-b385-0ccf219d7275	Duration: 5115.14 ms	Billed Duration: 5116 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45901.13444773148</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5112.86</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 12443158-124f-4e77-9538-d96b43dc030d	Duration: 5112.86 ms	Billed Duration: 5113 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45901.13455351852</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5130.06</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: cf181545-5774-4d0f-b0cc-d27188836998	Duration: 5130.06 ms	Billed Duration: 5131 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -2553,7 +6414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2580,14 +6441,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16323061343</v>
+        <v>45901.13334991898</v>
       </c>
       <c r="B2" t="n">
-        <v>5576.23</v>
+        <v>5587.95</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: 5e47df7d-c67c-497f-b901-6ac275f4e5c0	Duration: 5576.23 ms	Billed Duration: 6248 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 671.39 ms	
+          <t xml:space="preserve">REPORT RequestId: dc354feb-19e1-4c4a-a632-0d7012d7db74	Duration: 5587.95 ms	Billed Duration: 6316 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 727.24 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.1335610301</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5128.4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 7cd5a53c-fbd6-40fb-8e3b-8fd9cfc218b5	Duration: 5128.40 ms	Billed Duration: 5129 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13366542824</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5127.21</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: d065af86-0f09-4def-aa11-be67a04b6e7d	Duration: 5127.21 ms	Billed Duration: 5128 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13377214121</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5111.07</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: f878531f-5d3e-4cd0-b462-85c90a84ac6a	Duration: 5111.07 ms	Billed Duration: 5112 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13387445602</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5122.66</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 09cd1e70-28c8-461b-9d0a-05b498786ef2	Duration: 5122.66 ms	Billed Duration: 5123 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.1339783912</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5118.05</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 2db0afd2-9ec7-48c9-be72-896d04718218	Duration: 5118.05 ms	Billed Duration: 5119 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13408811342</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5117.09</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 9ba16434-7222-4e56-9dec-55033f569c39	Duration: 5117.09 ms	Billed Duration: 5118 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13418903935</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5122.3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: fae61feb-f3eb-46e2-afa9-c04841e01dd1	Duration: 5122.30 ms	Billed Duration: 5123 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13445987269</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5115.31</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 01e44c53-7b17-44a7-b1ad-309117549632	Duration: 5115.31 ms	Billed Duration: 5116 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13456542824</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5119.99</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: f3dacf05-b6f4-4509-86df-130f9face85d	Duration: 5119.99 ms	Billed Duration: 5120 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.1346709838</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5119.91</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 7fc4b567-6db9-4a9f-bbc5-6daf9e52874b	Duration: 5119.91 ms	Billed Duration: 5120 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -2603,7 +6604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2630,14 +6631,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16330487269</v>
+        <v>45901.13342950231</v>
       </c>
       <c r="B2" t="n">
-        <v>5542.89</v>
+        <v>5568.46</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: ba779702-ce83-479a-8922-567477576ab3	Duration: 5542.89 ms	Billed Duration: 6136 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 592.28 ms	
+          <t xml:space="preserve">REPORT RequestId: d1cf87e3-6721-4a34-a905-2338b632fc0f	Duration: 5568.46 ms	Billed Duration: 6253 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 684.26 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13361978009</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5126.05</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 1a3bce39-1ec8-4427-9c6f-6821cf190e69	Duration: 5126.05 ms	Billed Duration: 5127 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13372395833</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5097</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 6e24a077-34e4-4b58-8095-09f5fe98e74e	Duration: 5097.00 ms	Billed Duration: 5097 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13383112269</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5119.81</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: e5e30e1a-2d60-42ed-aaa0-2362bba0e82e	Duration: 5119.81 ms	Billed Duration: 5120 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13393366898</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5116.79</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 5d5a14ff-9f2c-4ed5-8b99-a56964622cad	Duration: 5116.79 ms	Billed Duration: 5117 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.1340371412</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5122.91</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: f4b627a7-7e6b-473c-ac93-0e67f1e1bc86	Duration: 5122.91 ms	Billed Duration: 5123 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13414686343</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5117.96</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 74350226-4c7a-444f-9363-f94b97ad18ad	Duration: 5117.96 ms	Billed Duration: 5118 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13424778935</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5126.13</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: b8b7f8c9-f196-44a4-9ece-718e1f588ca1	Duration: 5126.13 ms	Billed Duration: 5127 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13451862268</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5122.49</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 10b37dea-1844-4bda-aea8-39c2de1410ea	Duration: 5122.49 ms	Billed Duration: 5123 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13462417824</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5122.56</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: f49d5542-e3a2-4c33-9f6f-7335d9c30c34	Duration: 5122.56 ms	Billed Duration: 5123 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.1347297338</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5124.77</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 08f725eb-5a1e-4ff7-98e5-bcaad63bdc8f	Duration: 5124.77 ms	Billed Duration: 5125 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -2653,7 +6794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2680,14 +6821,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16337856482</v>
+        <v>45901.13350789352</v>
       </c>
       <c r="B2" t="n">
-        <v>5582.13</v>
+        <v>5556.4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: d5633af0-22dc-4d3e-b8f1-80ac6a9068c0	Duration: 5582.13 ms	Billed Duration: 6187 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 604.03 ms	
+          <t xml:space="preserve">REPORT RequestId: 5d1cbe61-02da-47de-a528-38290841e793	Duration: 5556.40 ms	Billed Duration: 6270 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 713.20 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13367872685</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5120.55</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 86b91577-d226-4a87-a68f-4be64d7534ae	Duration: 5120.55 ms	Billed Duration: 5121 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13378267361</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5098.31</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: f39e307f-5522-4c47-a8e1-e34636a1cf3c	Duration: 5098.31 ms	Billed Duration: 5099 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13388983796</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5119.88</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: d34e47cb-7cfa-49a0-a96a-c95124d9a46c	Duration: 5119.88 ms	Billed Duration: 5120 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13399216435</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5090.39</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 962f0fdb-6217-4f25-a803-6d16ffde73da	Duration: 5090.39 ms	Billed Duration: 5091 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13409585648</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5126.92</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: ff044887-d00f-4423-9e3a-33e653a2b56f	Duration: 5126.92 ms	Billed Duration: 5127 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.1342055787</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5118.19</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: b0de55d3-6f31-4378-9364-8a16230e663f	Duration: 5118.19 ms	Billed Duration: 5119 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13430650463</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5125.87</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 0b36daa9-a64e-42a8-9fe9-5949a8e33d1e	Duration: 5125.87 ms	Billed Duration: 5126 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13457733797</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5115.36</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 02478abc-8180-4c1a-98cd-082ebbd1e22e	Duration: 5115.36 ms	Billed Duration: 5116 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13468289352</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5120.81</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: ff055075-b1a2-45fc-b4c2-9640419926a3	Duration: 5120.81 ms	Billed Duration: 5121 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13478844908</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5124.77</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: e871d097-a1f4-45ab-9b3c-1595e5060a3f	Duration: 5124.77 ms	Billed Duration: 5125 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -2703,7 +6984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,14 +7011,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16345435185</v>
+        <v>45901.13358541667</v>
       </c>
       <c r="B2" t="n">
-        <v>5555.93</v>
+        <v>5543.75</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: 596f6265-fab0-41ca-8c2f-d696c1e186a1	Duration: 5555.93 ms	Billed Duration: 6226 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 669.83 ms	
+          <t xml:space="preserve">REPORT RequestId: 3fccbbd2-b9b9-48ff-a314-ed3b010533d6	Duration: 5543.75 ms	Billed Duration: 6226 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 681.33 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13373747686</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5121.68</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 184152b4-7447-47b1-bd7f-a3079be127fe	Duration: 5121.68 ms	Billed Duration: 5122 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.133841875</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5117.35</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: dc030249-a8ff-4073-9bd4-51b09ea5556a	Duration: 5117.35 ms	Billed Duration: 5118 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13394835648</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5109.51</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 85a7341a-ea53-4f5d-891b-4964cc0d743a	Duration: 5109.51 ms	Billed Duration: 5110 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13405159722</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5120.54</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 0b13c19b-a896-4972-ac74-b2d2176af882	Duration: 5120.54 ms	Billed Duration: 5121 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13415438657</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5110.82</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: a67ff7d5-9912-47c1-88df-de15dee7dad2	Duration: 5110.82 ms	Billed Duration: 5111 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13426432871</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5126.52</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: fbf3d961-13ee-43a7-8445-1369cd675695	Duration: 5126.52 ms	Billed Duration: 5127 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13436503472</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5099.13</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: bf9207f9-a42f-4ec2-bd88-1204edec4478	Duration: 5099.13 ms	Billed Duration: 5100 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13463631945</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5147.77</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: b534e277-ac46-4a1b-8b79-0c4b8f1bc1bf	Duration: 5147.77 ms	Billed Duration: 5148 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13474164352</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5128.35</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: c7751494-4afa-49dd-899c-ef06fce16bcc	Duration: 5128.35 ms	Billed Duration: 5129 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13484697917</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5110.76</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 4fdbec8d-3a15-410e-8a4d-85a23512b78f	Duration: 5110.76 ms	Billed Duration: 5111 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -2753,7 +7174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2780,14 +7201,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16353177084</v>
+        <v>45901.13365981481</v>
       </c>
       <c r="B2" t="n">
-        <v>5536.44</v>
+        <v>5562.69</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: 1178812d-5403-4f31-b2e3-410f2b20b8a5	Duration: 5536.44 ms	Billed Duration: 6514 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 977.00 ms	
+          <t xml:space="preserve">REPORT RequestId: f88e77de-2086-48dd-9c30-045254dc19b6	Duration: 5562.69 ms	Billed Duration: 6238 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 674.69 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13379638889</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5119.14</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 21b0fd6b-bd7e-429f-8a69-e8a5794991ff	Duration: 5119.14 ms	Billed Duration: 5120 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13390056713</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5097.36</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 14c2a373-1909-40af-a972-0fa0febf541f	Duration: 5097.36 ms	Billed Duration: 5098 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13400725694</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5121.86</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: f3652155-5cff-4071-a7b1-f289fa4541c8	Duration: 5121.86 ms	Billed Duration: 5122 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13411005787</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5099.27</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: b5b757b3-007a-4467-af3d-9bd2aeec33d8	Duration: 5099.27 ms	Billed Duration: 5100 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13421328703</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5121.19</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 564d8479-c1bc-4006-9db4-bf1a938aa646	Duration: 5121.19 ms	Billed Duration: 5122 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13432300926</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5121.01</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 435fb423-61a6-4fbf-91de-a964a4f17a55	Duration: 5121.01 ms	Billed Duration: 5122 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13442393518</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5122.08</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: d764d581-2024-49e1-9550-d83cd16e44a4	Duration: 5122.08 ms	Billed Duration: 5123 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.13469476852</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5118.78</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 597c598c-e437-473e-9f33-e80961b1e41d	Duration: 5118.78 ms	Billed Duration: 5119 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13480010417</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5097.89</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 90a593be-567d-4626-a442-9b95a9ae789f	Duration: 5097.89 ms	Billed Duration: 5098 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13490586806</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5121.96</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 41f54e9b-18b9-46f1-85f4-8af40c9cbb9a	Duration: 5121.96 ms	Billed Duration: 5122 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
@@ -2803,7 +7364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2830,14 +7391,154 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45899.16360668981</v>
+        <v>45901.13373796296</v>
       </c>
       <c r="B2" t="n">
-        <v>5579.72</v>
+        <v>5575.09</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORT RequestId: 6a9564b3-3c34-4cc5-885a-8543bb02dc46	Duration: 5579.72 ms	Billed Duration: 6267 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 686.40 ms	
+          <t xml:space="preserve">REPORT RequestId: d1cd7c72-0c10-4748-b045-47a05450e5be	Duration: 5575.09 ms	Billed Duration: 6256 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	Init Duration: 680.01 ms	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45901.13385532407</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5111.61</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 17aea333-69fd-44a3-a2fe-888631bae991	Duration: 5111.61 ms	Billed Duration: 5112 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45901.13395949074</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5118.05</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 413e9ab9-470e-474f-a8e1-2bff763addf8	Duration: 5118.05 ms	Billed Duration: 5119 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45901.13406597222</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5117.52</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: ff2168c0-7678-4e15-be0a-571032fea202	Duration: 5117.52 ms	Billed Duration: 5118 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45901.13416898148</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5121.64</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: d2915508-0b9f-47c8-9ee8-2a240964f7d1	Duration: 5121.64 ms	Billed Duration: 5122 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45901.13427222223</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5128.14</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 2197e495-3dc1-445a-b413-9e16eabb8f25	Duration: 5128.14 ms	Billed Duration: 5129 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45901.13438149306</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5102.44</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: fcb3ad97-adf9-42d2-b136-59d00c6f2d2a	Duration: 5102.44 ms	Billed Duration: 5103 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45901.13448241898</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5092.01</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: 74c26b3a-3a8d-4c62-92cb-7651d9e37313	Duration: 5092.01 ms	Billed Duration: 5093 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45901.1347534838</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5122.07</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: bc0a82e6-5a4e-4ec1-8e86-f5f014966728	Duration: 5122.07 ms	Billed Duration: 5123 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45901.13485880787</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5106.76</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: a2a0763e-bc40-48be-84db-0147cc46296c	Duration: 5106.76 ms	Billed Duration: 5107 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45901.13496458333</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5116.92</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPORT RequestId: e55aa9d3-687e-4c39-ad61-22cd92c1a1b2	Duration: 5116.92 ms	Billed Duration: 5117 ms	Memory Size: 128 MB	Max Memory Used: 88 MB	
 </t>
         </is>
       </c>
